--- a/URS/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/URS/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="207">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>行業別</t>
-  </si>
-  <si>
-    <t>國籍</t>
   </si>
   <si>
     <t>配偶姓名/負責人姓名</t>
@@ -145,9 +142,6 @@
     </r>
   </si>
   <si>
-    <t>客戶識別碼</t>
-  </si>
-  <si>
     <t>單位別</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
   </si>
   <si>
     <t>IndustryCode</t>
-  </si>
-  <si>
-    <t>NationalityCode</t>
   </si>
   <si>
     <t>SpouseId</t>
@@ -351,10 +342,6 @@
   <si>
     <t>CustName %</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustUKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CustId</t>
@@ -537,10 +524,6 @@
     <t>若此客戶為員工
 才放該員工的員工代號</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>custNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>custNameEq</t>
@@ -819,11 +802,68 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>資料狀態</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶識別碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustUKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔身分別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NationalityCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BussNationalityCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>國籍對照檔
+比照ELOAN
+(2021/08/27上DB)by eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人:營業地國籍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>DataStatus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>資料狀態</t>
+    <t>自然人:出生地國籍/法人:註冊地國籍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustUKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.借戶1.保證人2.擔保品提供人3.交易關係人4.借款戶關係人
+2021/08/24新增欄位
+(2021/08/25上DB)by eric
+(2021/09/17)新增4. by昱衡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1003,7 +1043,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1093,6 +1133,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1405,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1423,53 +1466,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="31"/>
+      <c r="A1" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="32"/>
       <c r="C1" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="31"/>
+      <c r="A3" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="32"/>
       <c r="C3" s="8" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="31"/>
+      <c r="A4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="32"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
@@ -1477,27 +1520,27 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="31"/>
+      <c r="A5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="32"/>
       <c r="C5" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="31"/>
+      <c r="A6" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="32"/>
       <c r="C6" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1505,12 +1548,12 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="31"/>
+      <c r="A7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="32"/>
       <c r="C7" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1519,25 +1562,25 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1545,13 +1588,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="18">
         <v>32</v>
@@ -1565,13 +1608,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="18">
         <v>10</v>
@@ -1581,24 +1624,24 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
-        <f t="shared" ref="A11:A74" si="0">A10+1</f>
+        <f t="shared" ref="A11:A75" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E11" s="18">
         <v>7</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1607,13 +1650,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="18">
         <v>4</v>
@@ -1627,13 +1670,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="18">
         <v>100</v>
@@ -1647,13 +1690,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E14" s="18">
         <v>8</v>
@@ -1667,20 +1710,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="18">
         <v>1</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="162" x14ac:dyDescent="0.3">
@@ -1689,20 +1732,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="18">
         <v>2</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1711,80 +1754,82 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="18">
         <v>6</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="18">
         <v>2</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="D19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="18">
+      <c r="B20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="18">
         <v>10</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="18">
-        <v>100</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -1795,16 +1840,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E21" s="18">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -1815,13 +1860,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="18">
         <v>3</v>
@@ -1835,21 +1880,19 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="18"/>
-      <c r="G23" s="18" t="s">
-        <v>152</v>
-      </c>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
@@ -1857,20 +1900,20 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1879,19 +1922,21 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E25" s="18">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
@@ -1899,16 +1944,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E26" s="18">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -1919,13 +1964,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="18">
         <v>5</v>
@@ -1939,13 +1984,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="18">
         <v>5</v>
@@ -1959,13 +2004,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="18">
         <v>5</v>
@@ -1979,13 +2024,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="18">
         <v>5</v>
@@ -1999,13 +2044,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="18">
         <v>5</v>
@@ -2019,13 +2064,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="18">
         <v>5</v>
@@ -2039,16 +2084,16 @@
         <v>25</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -2059,13 +2104,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="18">
         <v>3</v>
@@ -2079,21 +2124,19 @@
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="18"/>
-      <c r="G35" s="18" t="s">
-        <v>152</v>
-      </c>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
@@ -2101,20 +2144,20 @@
         <v>28</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2123,19 +2166,21 @@
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E37" s="18">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="G37" s="18" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
@@ -2143,16 +2188,16 @@
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C38" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="18">
         <v>40</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="18">
-        <v>5</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -2163,13 +2208,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="18">
         <v>5</v>
@@ -2183,13 +2228,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="18">
         <v>5</v>
@@ -2203,13 +2248,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" s="18">
         <v>5</v>
@@ -2223,13 +2268,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="18">
         <v>5</v>
@@ -2243,13 +2288,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="18">
         <v>5</v>
@@ -2263,13 +2308,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="18">
         <v>5</v>
@@ -2277,133 +2322,133 @@
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C45" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="18">
+        <v>5</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="18">
+        <v>1</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="18">
-        <v>1</v>
-      </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="18">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="24">
+      <c r="D47" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="24">
         <v>6</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="24">
+      <c r="F47" s="24"/>
+      <c r="G47" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="24">
         <v>50</v>
       </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-    </row>
-    <row r="48" spans="1:7" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="18">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="24">
-        <v>1</v>
-      </c>
       <c r="F48" s="24"/>
-      <c r="G48" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" s="24">
         <v>1</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E50" s="24">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
+      <c r="G50" s="24" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
@@ -2411,16 +2456,16 @@
         <v>43</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E51" s="24">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
@@ -2431,16 +2476,16 @@
         <v>44</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" s="24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
@@ -2451,16 +2496,16 @@
         <v>45</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E53" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
@@ -2471,16 +2516,16 @@
         <v>46</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E54" s="24">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
@@ -2491,16 +2536,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E55" s="24">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
@@ -2511,21 +2556,19 @@
         <v>48</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="E56" s="24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F56" s="24"/>
-      <c r="G56" s="24" t="s">
-        <v>174</v>
-      </c>
+      <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18">
@@ -2533,19 +2576,21 @@
         <v>49</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57" s="24">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
+      <c r="G57" s="24" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
@@ -2553,16 +2598,16 @@
         <v>50</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" s="24">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
@@ -2573,13 +2618,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" s="24">
         <v>3</v>
@@ -2587,45 +2632,45 @@
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="18">
+      <c r="B60" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="24">
+        <v>3</v>
+      </c>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="18">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="18">
         <v>100</v>
       </c>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-    </row>
-    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="18">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="24">
-        <v>3</v>
-      </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
@@ -2633,13 +2678,13 @@
         <v>54</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E62" s="24">
         <v>3</v>
@@ -2653,104 +2698,102 @@
         <v>55</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="E63" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B64" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="18">
+      <c r="B64" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="24">
+        <v>1</v>
+      </c>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="18">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="18">
         <v>50</v>
       </c>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-    </row>
-    <row r="65" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="18">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="23">
-        <v>1</v>
-      </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22" t="s">
-        <v>165</v>
-      </c>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B66" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="25">
+      <c r="B66" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="23">
+        <v>1</v>
+      </c>
+      <c r="F66" s="21"/>
+      <c r="G66" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="18">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="25">
         <v>6</v>
-      </c>
-      <c r="F66" s="29"/>
-      <c r="G66" s="28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="18">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="25">
-        <v>1</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="28" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2759,20 +2802,20 @@
         <v>60</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68" s="25">
         <v>1</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="28" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2781,81 +2824,87 @@
         <v>61</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" s="25">
         <v>1</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="E70" s="25">
         <v>1</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="18">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" s="25">
+        <v>1</v>
+      </c>
+      <c r="F71" s="29"/>
+      <c r="G71" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="A72" s="18">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="28" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="18">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="18">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="18">
-        <v>6</v>
-      </c>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
+      <c r="D72" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="30">
+        <v>1</v>
+      </c>
+      <c r="F72" s="29"/>
+      <c r="G72" s="28" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
@@ -2863,16 +2912,17 @@
         <v>65</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
@@ -2880,26 +2930,68 @@
         <v>66</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74" s="18">
         <v>6</v>
       </c>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="26"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
+      <c r="A75" s="18">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="18">
+        <f t="shared" ref="A76" si="1">A75+1</f>
+        <v>68</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="26"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D83" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2923,7 +3015,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2947,81 +3039,81 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/URS/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/URS/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L1-顧客管理作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKL\Documents\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAFFA9F-0993-4B7E-B8A2-4780B8A0C687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="209">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -151,9 +161,6 @@
     <t>Birthday</t>
   </si>
   <si>
-    <t>IndustryCode</t>
-  </si>
-  <si>
     <t>SpouseId</t>
   </si>
   <si>
@@ -866,11 +873,23 @@
 (2021/09/17)新增4. by昱衡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>IndustryCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustryCode =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>industryCodeAll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1146,7 +1165,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,6 +1256,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1272,6 +1308,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1447,11 +1500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1467,14 +1520,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1484,10 +1537,10 @@
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -1495,14 +1548,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1521,14 +1574,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1536,11 +1589,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1549,11 +1602,11 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1562,7 +1615,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>13</v>
@@ -1588,10 +1641,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>11</v>
@@ -1608,10 +1661,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>11</v>
@@ -1628,20 +1681,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="18">
         <v>7</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1650,7 +1703,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>19</v>
@@ -1670,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>3</v>
@@ -1696,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="18">
         <v>8</v>
@@ -1710,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>5</v>
@@ -1723,7 +1776,7 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="162" x14ac:dyDescent="0.3">
@@ -1732,7 +1785,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>6</v>
@@ -1745,7 +1798,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1754,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
@@ -1767,7 +1820,7 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1776,10 +1829,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>11</v>
@@ -1789,7 +1842,7 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1798,10 +1851,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>11</v>
@@ -1811,7 +1864,7 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1820,10 +1873,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>11</v>
@@ -1840,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>8</v>
@@ -1860,10 +1913,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>11</v>
@@ -1880,10 +1933,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>11</v>
@@ -1900,10 +1953,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>11</v>
@@ -1913,7 +1966,7 @@
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1922,10 +1975,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>11</v>
@@ -1935,7 +1988,7 @@
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1944,10 +1997,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>20</v>
@@ -1964,10 +2017,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>11</v>
@@ -1984,10 +2037,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>11</v>
@@ -2004,10 +2057,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>11</v>
@@ -2024,10 +2077,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>11</v>
@@ -2044,10 +2097,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>11</v>
@@ -2064,10 +2117,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>11</v>
@@ -2084,10 +2137,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>11</v>
@@ -2104,10 +2157,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>11</v>
@@ -2124,10 +2177,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>11</v>
@@ -2144,10 +2197,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>11</v>
@@ -2157,7 +2210,7 @@
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2166,10 +2219,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>11</v>
@@ -2179,7 +2232,7 @@
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2188,10 +2241,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>20</v>
@@ -2208,10 +2261,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>11</v>
@@ -2228,10 +2281,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>11</v>
@@ -2248,10 +2301,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>11</v>
@@ -2268,10 +2321,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>11</v>
@@ -2288,10 +2341,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>11</v>
@@ -2308,10 +2361,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>11</v>
@@ -2328,10 +2381,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>11</v>
@@ -2348,7 +2401,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>9</v>
@@ -2361,7 +2414,7 @@
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2370,7 +2423,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>10</v>
@@ -2383,7 +2436,7 @@
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2392,10 +2445,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>11</v>
@@ -2412,10 +2465,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>11</v>
@@ -2425,7 +2478,7 @@
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2434,10 +2487,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>11</v>
@@ -2447,7 +2500,7 @@
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2456,10 +2509,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>20</v>
@@ -2476,10 +2529,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>11</v>
@@ -2496,10 +2549,10 @@
         <v>45</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>11</v>
@@ -2516,10 +2569,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>51</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>20</v>
@@ -2536,10 +2589,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>11</v>
@@ -2556,13 +2609,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>55</v>
-      </c>
       <c r="D56" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" s="24">
         <v>9</v>
@@ -2576,10 +2629,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>11</v>
@@ -2589,7 +2642,7 @@
       </c>
       <c r="F57" s="24"/>
       <c r="G57" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2598,10 +2651,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>11</v>
@@ -2618,10 +2671,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>11</v>
@@ -2638,10 +2691,10 @@
         <v>52</v>
       </c>
       <c r="B60" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>11</v>
@@ -2658,10 +2711,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>20</v>
@@ -2678,13 +2731,13 @@
         <v>54</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E62" s="24">
         <v>3</v>
@@ -2698,13 +2751,13 @@
         <v>55</v>
       </c>
       <c r="B63" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="24" t="s">
-        <v>151</v>
-      </c>
       <c r="D63" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E63" s="24">
         <v>3</v>
@@ -2718,13 +2771,13 @@
         <v>56</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E64" s="24">
         <v>1</v>
@@ -2738,10 +2791,10 @@
         <v>57</v>
       </c>
       <c r="B65" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>11</v>
@@ -2758,20 +2811,20 @@
         <v>58</v>
       </c>
       <c r="B66" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D66" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E66" s="23">
         <v>1</v>
       </c>
       <c r="F66" s="21"/>
       <c r="G66" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2780,10 +2833,10 @@
         <v>59</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>11</v>
@@ -2793,7 +2846,7 @@
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2802,10 +2855,10 @@
         <v>60</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>11</v>
@@ -2815,7 +2868,7 @@
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2824,10 +2877,10 @@
         <v>61</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>11</v>
@@ -2837,7 +2890,7 @@
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2846,10 +2899,10 @@
         <v>62</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>11</v>
@@ -2859,7 +2912,7 @@
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2868,20 +2921,20 @@
         <v>63</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E71" s="25">
         <v>1</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -2890,20 +2943,20 @@
         <v>64</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E72" s="30">
         <v>1</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2912,13 +2965,13 @@
         <v>65</v>
       </c>
       <c r="B73" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
@@ -2930,10 +2983,10 @@
         <v>66</v>
       </c>
       <c r="B74" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>11</v>
@@ -2950,13 +3003,13 @@
         <v>67</v>
       </c>
       <c r="B75" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="18" t="s">
-        <v>79</v>
-      </c>
       <c r="D75" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
@@ -2967,10 +3020,10 @@
         <v>68</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>11</v>
@@ -2984,7 +3037,7 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D83" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
@@ -3010,12 +3063,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3039,81 +3092,92 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
